--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Mmp9</t>
+  </si>
+  <si>
+    <t>Lrp1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Mmp9</t>
-  </si>
-  <si>
-    <t>Lrp1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>178.6795653333333</v>
+        <v>1.627176</v>
       </c>
       <c r="H2">
-        <v>536.038696</v>
+        <v>4.881528</v>
       </c>
       <c r="I2">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="J2">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>4223.234053386614</v>
+        <v>3.122398331848</v>
       </c>
       <c r="R2">
-        <v>38009.10648047952</v>
+        <v>28.101584986632</v>
       </c>
       <c r="S2">
-        <v>0.06647561533705983</v>
+        <v>0.001687763217737029</v>
       </c>
       <c r="T2">
-        <v>0.06647561533705983</v>
+        <v>0.001687763217737029</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>178.6795653333333</v>
+        <v>1.627176</v>
       </c>
       <c r="H3">
-        <v>536.038696</v>
+        <v>4.881528</v>
       </c>
       <c r="I3">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="J3">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>32392.53096341923</v>
+        <v>294.988119456208</v>
       </c>
       <c r="R3">
-        <v>291532.7786707731</v>
+        <v>2654.893075105872</v>
       </c>
       <c r="S3">
-        <v>0.5098730974645637</v>
+        <v>0.1594511797580096</v>
       </c>
       <c r="T3">
-        <v>0.5098730974645637</v>
+        <v>0.1594511797580096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>178.6795653333333</v>
+        <v>1.627176</v>
       </c>
       <c r="H4">
-        <v>536.038696</v>
+        <v>4.881528</v>
       </c>
       <c r="I4">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="J4">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>5385.945165905569</v>
+        <v>47.26567527666401</v>
       </c>
       <c r="R4">
-        <v>48473.50649315012</v>
+        <v>425.3910774899761</v>
       </c>
       <c r="S4">
-        <v>0.08477721446390778</v>
+        <v>0.02554871599173637</v>
       </c>
       <c r="T4">
-        <v>0.08477721446390778</v>
+        <v>0.02554871599173638</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>178.6795653333333</v>
+        <v>1.627176</v>
       </c>
       <c r="H5">
-        <v>536.038696</v>
+        <v>4.881528</v>
       </c>
       <c r="I5">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="J5">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>19851.39732713586</v>
+        <v>133.224230090272</v>
       </c>
       <c r="R5">
-        <v>178662.5759442227</v>
+        <v>1199.018070812448</v>
       </c>
       <c r="S5">
-        <v>0.3124699782063004</v>
+        <v>0.07201225832215237</v>
       </c>
       <c r="T5">
-        <v>0.3124699782063004</v>
+        <v>0.07201225832215237</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,14 +770,14 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.627176</v>
+        <v>0.5265696666666667</v>
       </c>
       <c r="H6">
-        <v>4.881528</v>
+        <v>1.579709</v>
       </c>
       <c r="I6">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168156</v>
       </c>
       <c r="J6">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168154</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>38.459602704056</v>
+        <v>1.010437868307889</v>
       </c>
       <c r="R6">
-        <v>346.136424336504</v>
+        <v>9.093940814770999</v>
       </c>
       <c r="S6">
-        <v>0.0006053715524766649</v>
+        <v>0.0005461762679489177</v>
       </c>
       <c r="T6">
-        <v>0.0006053715524766649</v>
+        <v>0.0005461762679489176</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.627176</v>
+        <v>0.5265696666666667</v>
       </c>
       <c r="H7">
-        <v>4.881528</v>
+        <v>1.579709</v>
       </c>
       <c r="I7">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168156</v>
       </c>
       <c r="J7">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168154</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
-        <v>294.988119456208</v>
+        <v>95.46096779492957</v>
       </c>
       <c r="R7">
-        <v>2654.893075105872</v>
+        <v>859.1487101543661</v>
       </c>
       <c r="S7">
-        <v>0.004643246504950078</v>
+        <v>0.05159992193516981</v>
       </c>
       <c r="T7">
-        <v>0.004643246504950076</v>
+        <v>0.0515999219351698</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.627176</v>
+        <v>0.5265696666666667</v>
       </c>
       <c r="H8">
-        <v>4.881528</v>
+        <v>1.579709</v>
       </c>
       <c r="I8">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168156</v>
       </c>
       <c r="J8">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168154</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>49.048030170256</v>
+        <v>15.29562313800589</v>
       </c>
       <c r="R8">
-        <v>441.432271532304</v>
+        <v>137.660608242053</v>
       </c>
       <c r="S8">
-        <v>0.0007720381928687679</v>
+        <v>0.008267808069643333</v>
       </c>
       <c r="T8">
-        <v>0.0007720381928687679</v>
+        <v>0.008267808069643333</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.627176</v>
+        <v>0.5265696666666667</v>
       </c>
       <c r="H9">
-        <v>4.881528</v>
+        <v>1.579709</v>
       </c>
       <c r="I9">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168156</v>
       </c>
       <c r="J9">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168154</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>180.780142580488</v>
+        <v>43.11263098187156</v>
       </c>
       <c r="R9">
-        <v>1627.021283224392</v>
+        <v>388.013678836844</v>
       </c>
       <c r="S9">
-        <v>0.00284556126107255</v>
+        <v>0.02330385333891949</v>
       </c>
       <c r="T9">
-        <v>0.00284556126107255</v>
+        <v>0.02330385333891949</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,14 +1018,14 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.631529</v>
+        <v>4.136074666666667</v>
       </c>
       <c r="H10">
-        <v>1.894587</v>
+        <v>12.408224</v>
       </c>
       <c r="I10">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="J10">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N10">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q10">
-        <v>14.92669166463233</v>
+        <v>7.936739873006221</v>
       </c>
       <c r="R10">
-        <v>134.340224981691</v>
+        <v>71.430658857056</v>
       </c>
       <c r="S10">
-        <v>0.0002349528822721302</v>
+        <v>0.004290079676822878</v>
       </c>
       <c r="T10">
-        <v>0.0002349528822721302</v>
+        <v>0.004290079676822878</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,13 +1080,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.631529</v>
+        <v>4.136074666666667</v>
       </c>
       <c r="H11">
-        <v>1.894587</v>
+        <v>12.408224</v>
       </c>
       <c r="I11">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="J11">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P11">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q11">
-        <v>114.4888764903487</v>
+        <v>749.8223227545529</v>
       </c>
       <c r="R11">
-        <v>1030.399888413138</v>
+        <v>6748.400904790977</v>
       </c>
       <c r="S11">
-        <v>0.001802106730940364</v>
+        <v>0.4053046413954092</v>
       </c>
       <c r="T11">
-        <v>0.001802106730940364</v>
+        <v>0.4053046413954092</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.631529</v>
+        <v>4.136074666666667</v>
       </c>
       <c r="H12">
-        <v>1.894587</v>
+        <v>12.408224</v>
       </c>
       <c r="I12">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="J12">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N12">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q12">
-        <v>19.03620348714066</v>
+        <v>120.1433416635342</v>
       </c>
       <c r="R12">
-        <v>171.325831384266</v>
+        <v>1081.290074971808</v>
       </c>
       <c r="S12">
-        <v>0.0002996384582271494</v>
+        <v>0.06494159020246265</v>
       </c>
       <c r="T12">
-        <v>0.0002996384582271494</v>
+        <v>0.06494159020246265</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.631529</v>
+        <v>4.136074666666667</v>
       </c>
       <c r="H13">
-        <v>1.894587</v>
+        <v>12.408224</v>
       </c>
       <c r="I13">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="J13">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N13">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q13">
-        <v>70.16321692534366</v>
+        <v>338.6390673550649</v>
       </c>
       <c r="R13">
-        <v>631.468952328093</v>
+        <v>3047.751606195584</v>
       </c>
       <c r="S13">
-        <v>0.001104400788632506</v>
+        <v>0.1830460118239884</v>
       </c>
       <c r="T13">
-        <v>0.001104400788632506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2.587116666666667</v>
-      </c>
-      <c r="H14">
-        <v>7.76135</v>
-      </c>
-      <c r="I14">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="J14">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>23.63579766666667</v>
-      </c>
-      <c r="N14">
-        <v>70.907393</v>
-      </c>
-      <c r="O14">
-        <v>0.06827844587621175</v>
-      </c>
-      <c r="P14">
-        <v>0.06827844587621175</v>
-      </c>
-      <c r="Q14">
-        <v>61.14856607339444</v>
-      </c>
-      <c r="R14">
-        <v>550.33709466055</v>
-      </c>
-      <c r="S14">
-        <v>0.0009625061044031219</v>
-      </c>
-      <c r="T14">
-        <v>0.000962506104403122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2.587116666666667</v>
-      </c>
-      <c r="H15">
-        <v>7.76135</v>
-      </c>
-      <c r="I15">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="J15">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>181.2883913333334</v>
-      </c>
-      <c r="N15">
-        <v>543.865174</v>
-      </c>
-      <c r="O15">
-        <v>0.5237009467675041</v>
-      </c>
-      <c r="P15">
-        <v>0.523700946767504</v>
-      </c>
-      <c r="Q15">
-        <v>469.0142186916556</v>
-      </c>
-      <c r="R15">
-        <v>4221.127968224901</v>
-      </c>
-      <c r="S15">
-        <v>0.007382496067049965</v>
-      </c>
-      <c r="T15">
-        <v>0.007382496067049964</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.587116666666667</v>
-      </c>
-      <c r="H16">
-        <v>7.76135</v>
-      </c>
-      <c r="I16">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="J16">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>30.14303933333333</v>
-      </c>
-      <c r="N16">
-        <v>90.42911799999999</v>
-      </c>
-      <c r="O16">
-        <v>0.08707638763417187</v>
-      </c>
-      <c r="P16">
-        <v>0.08707638763417187</v>
-      </c>
-      <c r="Q16">
-        <v>77.98355944325554</v>
-      </c>
-      <c r="R16">
-        <v>701.8520349892999</v>
-      </c>
-      <c r="S16">
-        <v>0.001227496519168181</v>
-      </c>
-      <c r="T16">
-        <v>0.001227496519168181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2.587116666666667</v>
-      </c>
-      <c r="H17">
-        <v>7.76135</v>
-      </c>
-      <c r="I17">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="J17">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>111.1005463333333</v>
-      </c>
-      <c r="N17">
-        <v>333.301639</v>
-      </c>
-      <c r="O17">
-        <v>0.3209442197221123</v>
-      </c>
-      <c r="P17">
-        <v>0.3209442197221123</v>
-      </c>
-      <c r="Q17">
-        <v>287.4300750947389</v>
-      </c>
-      <c r="R17">
-        <v>2586.87067585265</v>
-      </c>
-      <c r="S17">
-        <v>0.004524279466106809</v>
-      </c>
-      <c r="T17">
-        <v>0.004524279466106809</v>
+        <v>0.1830460118239884</v>
       </c>
     </row>
   </sheetData>
